--- a/Excel/DataBase Selection.xlsx
+++ b/Excel/DataBase Selection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="6">
   <si>
     <t>Database</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Epimed</t>
+  </si>
+  <si>
+    <t>Amedix</t>
   </si>
 </sst>
 </file>
@@ -987,7 +990,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,6 +1019,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Excel/DataBase Selection.xlsx
+++ b/Excel/DataBase Selection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="6">
   <si>
     <t>Database</t>
   </si>

--- a/Excel/DataBase Selection.xlsx
+++ b/Excel/DataBase Selection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="6">
   <si>
     <t>Database</t>
   </si>

--- a/Excel/DataBase Selection.xlsx
+++ b/Excel/DataBase Selection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="6">
   <si>
     <t>Database</t>
   </si>
